--- a/plugins/data-studio/data_test_20230814170806.xlsx
+++ b/plugins/data-studio/data_test_20230814170806.xlsx
@@ -1,25 +1,49 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23849F25-CCE1-4AE9-9BB3-4332FCBF28AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>工作表</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>1</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="1" baseType="lpstr">
+      <vt:lpstr>test</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>16.0300</AppVersion>
+</Properties>
+</file>
+
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Apache POI</dc:creator>
+  <cp:lastModifiedBy>user</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2023-08-14T09:08:06Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2023-08-28T08:59:26Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=docProps\custom.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <property fmtid="{D5CDD505-2E9C-101B-9397-08002B2CF9AE}" pid="2" name="5B77E7CEEC58BC6AFAE8886BEB80DBEB">
+    <vt:lpwstr>otCYQxs9Dbw2bUEn/Soxv9pYAoWsCRIsU8+gIbxzzmNcJN13+qHIPyWmbF9hFzPHyi2m8DLwi54E5OVVM5pJ0yGmgAiYTaR6oYUdYZxdjep6I9xviFUFZ9aTScfBW9OGDB+nAo390RUydar/Lu1UQdHj1+KodFv63kkuNodZ1LLLBe5oOBk2K/xrrKH3PStQzcPssWKVg1+goL0dmZ0zbafylauxfnLlK5d1tAXJk4g5YEGdjpZRLrCoZrEKoqdOuT1K6aEin3W/2vCI/EY0hEIzWKbRvGaqtwipK2T15ivxmL6+ZDkgL66qXgvrHnmMoq9JY6ld2OnpUaL1F+WMT/5QBsrZ0HrObGO018swaxBbR/LiJpBFf6VtmljKCQC1pOWtenQoy/WldmLuwfRMc4Nmi1Plitq1OEzhemLlMs5pm2KpSpFB/N+1jJRK+6kVfU/RCOG1GTRstRTpy7GGIRfIQPlevOdK0QY3cEPbYz9TIv9KAYP4ThDVOeshS7YqizKZjZxnvS/9mZzVzOoj3B5tDsQLVR/QRIm5xbWJQE1kuib9AiNJJ1VoFXBU+FMCMCXqwc514QPI7pudbXM/UU9wBlxYGjAcXrUBIifJOohShy30xK/YO7CgmRafpgAxxsRL5qfrubM83aOsHdztt2GbyDZYwt2+l3RYc+yz5MYG0mdxh804vTOv/BJu0eK7Q0DY143wS4Br2uy6fRqdBohVVyoENUERRMj5A0zr/Vo2YcPIiUBq2ksyFglvEXYsFwrk4zE5d9Y/qf67m9SQ4d3nKHeBaCFtDh2iIXMx6fR2gKAFVwfM+pluwZRhVA91/KI/gg7ZnLX59XQrWMdpJOTN3uSFpvfmUdGAlbmgHYdwcO1mDRfHx/zWSrO8WAAwehmCoF0pn2cNOIjmelv55lrYKt0MlF695JntDrv/6UYOGcGo3gTPIdlF3sLsVyCamprgiHSAN8mqczf2tYKlRNpMCY8Y8ToPDPRAqFoWdRiWnnsoTzoLT3m70a6aGrkN/0jDg91WU7D++s4FCyggUl2X2jNUZsvQfpQTRgdxg1ythPX0IOcK1K6HaC53f0Gfc9usF8ooQMX5S6DkEL8t0IUh7O7mD3BsRJL4+4V6JkTdl5fHdNiJvLxl81R6AzUdldYZUayxmyjLxDbJBK7drw==</vt:lpwstr>
+  </property>
+</Properties>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>a</t>
@@ -69,7 +93,7 @@
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -130,7 +154,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -425,7 +449,27 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23849F25-CCE1-4AE9-9BB3-4332FCBF28AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
